--- a/example/Sample.xlsx
+++ b/example/Sample.xlsx
@@ -334,7 +334,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="81">
   <si>
     <t>ID</t>
   </si>
@@ -581,6 +581,52 @@
   </si>
   <si>
     <t>2,3,4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑白</t>
+    <rPh sb="0" eb="1">
+      <t>hei'bai</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>葫芦瓢客</t>
+    <rPh sb="0" eb="1">
+      <t>hu'lu'piao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ke</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>老鼠</t>
+    <rPh sb="0" eb="1">
+      <t>lao'shu'y</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>老鼠</t>
+    <rPh sb="0" eb="1">
+      <t>lao'shu</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>人</t>
+    <rPh sb="0" eb="1">
+      <t>ren</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>float32</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -686,7 +732,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -696,8 +742,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -716,11 +768,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -990,10 +1047,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -1065,10 +1122,10 @@
         <v>14</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>16</v>
@@ -1172,10 +1229,18 @@
       <c r="B5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="4">
+      <c r="C5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="2">
+        <v>11</v>
+      </c>
+      <c r="E5" s="6">
         <v>0.6</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="6">
+        <v>23</v>
+      </c>
       <c r="G5" s="4"/>
       <c r="H5" s="2" t="s">
         <v>34</v>
@@ -1197,10 +1262,18 @@
       <c r="B6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="4">
+      <c r="C6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6">
         <v>0.8</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
       <c r="G6" s="2">
         <v>3</v>
       </c>
@@ -1218,10 +1291,18 @@
       <c r="B7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="4">
+      <c r="C7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="2">
+        <v>123</v>
+      </c>
+      <c r="E7" s="6">
         <v>0.7</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:14" ht="34" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
@@ -1230,9 +1311,13 @@
       <c r="B8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4"/>
+      <c r="C8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="5">
+        <v>32</v>
+      </c>
+      <c r="E8" s="6"/>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
@@ -1242,10 +1327,23 @@
       <c r="B9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="4">
+      <c r="C9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="2">
+        <v>32</v>
+      </c>
+      <c r="E9" s="6">
         <v>1</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="F10" s="6">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/example/Sample.xlsx
+++ b/example/Sample.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="39220" yWindow="1820" windowWidth="34540" windowHeight="14840"/>
+    <workbookView xWindow="39220" yWindow="1820" windowWidth="34540" windowHeight="14840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
-    <sheet name="@Types" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="@Types" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
@@ -53,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0">
+    <comment ref="G3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -75,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0">
+    <comment ref="J3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -94,28 +94,6 @@
           </rPr>
           <t xml:space="preserve">
 数字分割请不要使用逗号, 这是英文计数法分隔符, 会引起电子表格显示数据与导出不符的问题</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-结构体字段依然支持Alias别名功能, 在@Types Sheet中定义</t>
         </r>
       </text>
     </comment>
@@ -208,7 +186,29 @@
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="0">
+    <comment ref="F6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+浮点数的百分比显示时, 导出的依然是浮点数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -227,6 +227,50 @@
           </rPr>
           <t xml:space="preserve">
 多个单元格 repeated 数值会被合并到一个字段中</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+结构体字段依然支持Alias别名功能, 在@Types Sheet中定义</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+结构体字段依然支持Alias别名功能, 在@Types Sheet中定义</t>
         </r>
       </text>
     </comment>
@@ -238,6 +282,170 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+如果ID有重复, 将报错</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+Default特性可以不依赖proto3实现默认值功能, 注意值使用字符串</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+数字分割请不要使用逗号, 这是英文计数法分隔符, 会引起电子表格显示数据与导出不符的问题</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+结构体字段依然支持Alias别名功能, 在@Types Sheet中定义</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+结构体字段依然支持Alias别名功能, 在@Types Sheet中定义</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+结构体字段依然支持Alias别名功能, 在@Types Sheet中定义</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+结构体字段依然支持Alias别名功能, 在@Types Sheet中定义</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
     <author>Davy</author>
   </authors>
   <commentList>
@@ -334,7 +542,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="101">
   <si>
     <t>ID</t>
   </si>
@@ -358,9 +566,6 @@
   </si>
   <si>
     <t>Pos</t>
-  </si>
-  <si>
-    <t>SkillID</t>
   </si>
   <si>
     <t>AttackParam</t>
@@ -458,9 +663,6 @@
     </r>
   </si>
   <si>
-    <t>血量:100攻击速率:1.2</t>
-  </si>
-  <si>
     <t>血量: 3  额外类型:唐僧 | 血量:10  额外类型:孙悟空</t>
   </si>
   <si>
@@ -556,14 +758,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>[]SheetInfo</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>SheetInfo</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>SheetName:Sample|KeyID:ID|FindID:102</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -576,39 +770,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>String</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>2,3,4</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑白</t>
-    <rPh sb="0" eb="1">
-      <t>hei'bai</t>
-    </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>葫芦瓢客</t>
-    <rPh sb="0" eb="1">
-      <t>hu'lu'piao</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ke</t>
-    </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>老鼠</t>
-    <rPh sb="0" eb="1">
-      <t>lao'shu'y</t>
-    </rPh>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -619,14 +781,156 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>人</t>
+    <t>percentage</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapInterface</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"test":1,"test2":2, "test3": [1,3,4]}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]string</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>|</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑白|彩色|灰色</t>
+    <rPh sb="0" eb="1">
+      <t>hei'bai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cai'se</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>hui'se</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>葫芦|瓢客|郭德纲</t>
+    <rPh sb="0" eb="1">
+      <t>hu'lu'piao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>guo'de'gang</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>老鼠|耗子</t>
+    <rPh sb="0" eb="1">
+      <t>lao'shu'y</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hao'zi</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>人|耗子</t>
     <rPh sb="0" eb="1">
       <t>ren</t>
     </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>float32</t>
+    <rPh sb="2" eb="3">
+      <t>hao'zi</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>int64</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]int64</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,5,61</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,5,6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,4,4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,4,4,5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]float32</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.32|42.32|0.6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Float32s</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.665|42.32|0.6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Float64s</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>NumericalRates</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>60%|60%|60%</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>80%|80%|80%</t>
+  </si>
+  <si>
+    <t>[]percentage</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]float64</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SheetName:Sample|KeyID:ID|FindID:104</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能ID列表</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]sheetInfo</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]sheetInfo</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheetInfo</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -732,8 +1036,74 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -772,12 +1142,34 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="27">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1047,24 +1439,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.6640625" style="2" customWidth="1"/>
     <col min="2" max="4" width="20.1640625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="19.5" style="2" customWidth="1"/>
-    <col min="7" max="8" width="15.6640625" style="2" customWidth="1"/>
-    <col min="9" max="10" width="21.83203125" style="2" customWidth="1"/>
-    <col min="11" max="13" width="43.83203125" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="5" max="7" width="19.5" style="2" customWidth="1"/>
+    <col min="8" max="9" width="15.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="21.83203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="34.6640625" style="2" customWidth="1"/>
+    <col min="12" max="14" width="43.83203125" style="2" customWidth="1"/>
+    <col min="15" max="16" width="30" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1081,153 +1475,171 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>70</v>
+      <c r="F2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="I3" s="3"/>
+      <c r="J3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3" t="s">
+      <c r="K3" s="3"/>
+      <c r="L3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>22</v>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>75</v>
@@ -1235,32 +1647,44 @@
       <c r="D5" s="2">
         <v>11</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>0.6</v>
       </c>
-      <c r="F5" s="6">
-        <v>23</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="2" t="s">
+      <c r="F5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="6">
+        <v>643</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>36</v>
+      <c r="N5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>76</v>
@@ -1268,28 +1692,37 @@
       <c r="D6" s="2">
         <v>1</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>0.8</v>
       </c>
-      <c r="F6" s="6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="F6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="6">
+        <v>6433</v>
+      </c>
+      <c r="H6" s="2">
         <v>3</v>
       </c>
-      <c r="I6" s="2">
-        <v>1</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>69</v>
+      <c r="J6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>77</v>
@@ -1297,52 +1730,103 @@
       <c r="D7" s="2">
         <v>123</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <v>0.7</v>
       </c>
-      <c r="F7" s="6">
-        <v>1</v>
+      <c r="F7" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="G7" s="6">
+        <v>654</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="34" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" ht="34" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>103</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D8" s="5">
         <v>32</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="4"/>
+      <c r="G8" s="6">
+        <v>653</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>104</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D9" s="2">
         <v>32</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="4">
         <v>1</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6">
         <v>3</v>
       </c>
+      <c r="J9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="F10" s="6">
-        <v>4</v>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>104</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="2">
+        <v>32</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6">
+        <v>3</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1355,10 +1839,285 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="11" max="11" width="14.6640625" customWidth="1"/>
+    <col min="12" max="13" width="9" customWidth="1"/>
+    <col min="14" max="14" width="24.33203125" customWidth="1"/>
+    <col min="15" max="15" width="51" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>999</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="2">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="6">
+        <v>643</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>999</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="2">
+        <v>11</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="6">
+        <v>643</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H7"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1372,121 +2131,121 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
         <v>42</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>43</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>44</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>47</v>
-      </c>
-      <c r="G2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F4">
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1495,19 +2254,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/example/Sample.xlsx
+++ b/example/Sample.xlsx
@@ -542,7 +542,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="97">
   <si>
     <t>ID</t>
   </si>
@@ -770,10 +770,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>2,3,4</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>老鼠</t>
     <rPh sb="0" eb="1">
       <t>lao'shu</t>
@@ -855,22 +851,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>4,5,61</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,5,6</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,4,4</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,4,4,5</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>SkillID</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -931,6 +911,10 @@
   </si>
   <si>
     <t>sheetInfo</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2|3|4</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1036,8 +1020,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1142,7 +1132,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="29">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -1157,6 +1147,7 @@
     <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1170,6 +1161,7 @@
     <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1441,8 +1433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K16:P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -1475,7 +1467,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>5</v>
@@ -1487,7 +1479,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>9</v>
@@ -1502,10 +1494,10 @@
         <v>66</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
@@ -1516,19 +1508,19 @@
         <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>15</v>
@@ -1537,25 +1529,25 @@
         <v>67</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>67</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
@@ -1598,7 +1590,7 @@
         <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>25</v>
@@ -1642,7 +1634,7 @@
         <v>32</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D5" s="2">
         <v>11</v>
@@ -1651,7 +1643,7 @@
         <v>0.6</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G5" s="6">
         <v>643</v>
@@ -1661,10 +1653,10 @@
         <v>33</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>34</v>
@@ -1673,10 +1665,10 @@
         <v>65</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
@@ -1687,7 +1679,7 @@
         <v>35</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -1696,7 +1688,7 @@
         <v>0.8</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G6" s="6">
         <v>6433</v>
@@ -1705,16 +1697,16 @@
         <v>3</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
@@ -1725,7 +1717,7 @@
         <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D7" s="2">
         <v>123</v>
@@ -1740,10 +1732,10 @@
         <v>654</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="34" x14ac:dyDescent="0.15">
@@ -1754,7 +1746,7 @@
         <v>37</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" s="5">
         <v>32</v>
@@ -1765,10 +1757,10 @@
         <v>653</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
@@ -1779,7 +1771,7 @@
         <v>38</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D9" s="2">
         <v>32</v>
@@ -1794,10 +1786,10 @@
         <v>3</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
@@ -1808,7 +1800,7 @@
         <v>38</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" s="2">
         <v>32</v>
@@ -1823,10 +1815,10 @@
         <v>3</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1842,7 +1834,7 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1870,7 +1862,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>5</v>
@@ -1882,7 +1874,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>9</v>
@@ -1891,10 +1883,10 @@
         <v>10</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>64</v>
@@ -1908,19 +1900,19 @@
         <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>15</v>
@@ -1929,22 +1921,22 @@
         <v>67</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>67</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.15">
@@ -1984,7 +1976,7 @@
         <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>25</v>
@@ -2005,7 +1997,7 @@
         <v>28</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>30</v>
@@ -2025,7 +2017,7 @@
         <v>32</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D5" s="2">
         <v>11</v>
@@ -2034,7 +2026,7 @@
         <v>0.6</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G5" s="6">
         <v>643</v>
@@ -2043,23 +2035,17 @@
       <c r="I5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="K5" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="O5" s="2">
-        <v>1</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.15">
@@ -2070,7 +2056,7 @@
         <v>32</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D6" s="2">
         <v>11</v>
@@ -2079,7 +2065,7 @@
         <v>0.6</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G6" s="6">
         <v>643</v>
@@ -2088,20 +2074,17 @@
       <c r="I6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="K6" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>34</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
